--- a/2nd_phase/additional_data/holidays_20.xlsx
+++ b/2nd_phase/additional_data/holidays_20.xlsx
@@ -14,12 +14,63 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>date</t>
   </si>
   <si>
     <t>workday</t>
+  </si>
+  <si>
+    <t>1.1.2020</t>
+  </si>
+  <si>
+    <t>4.23.2020</t>
+  </si>
+  <si>
+    <t>5.1.2020</t>
+  </si>
+  <si>
+    <t>5.2.2020</t>
+  </si>
+  <si>
+    <t>5.3.2020</t>
+  </si>
+  <si>
+    <t>5.4.2020</t>
+  </si>
+  <si>
+    <t>5.5.2020</t>
+  </si>
+  <si>
+    <t>5.19.2020</t>
+  </si>
+  <si>
+    <t>7.9.2020</t>
+  </si>
+  <si>
+    <t>7.10.2020</t>
+  </si>
+  <si>
+    <t>7.11.2020</t>
+  </si>
+  <si>
+    <t>7.12.2020</t>
+  </si>
+  <si>
+    <t>7.13.2020</t>
+  </si>
+  <si>
+    <t>7.15.2020</t>
+  </si>
+  <si>
+    <t>8.30.2020</t>
+  </si>
+  <si>
+    <t>10.28.2020</t>
+  </si>
+  <si>
+    <t>10.29.2020</t>
   </si>
 </sst>
 </file>
@@ -29,8 +80,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -53,6 +104,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,37 +136,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -116,13 +174,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -153,8 +204,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -168,23 +228,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -199,187 +250,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -393,6 +444,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -400,15 +466,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -462,21 +519,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -490,160 +532,166 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -968,7 +1016,7 @@
   <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="1"/>
@@ -985,136 +1033,136 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="2">
-        <v>43831</v>
+      <c r="A2" t="s">
+        <v>2</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="2">
-        <v>43944</v>
+      <c r="A3" t="s">
+        <v>3</v>
       </c>
       <c r="B3" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="2">
-        <v>43952</v>
+      <c r="A4" t="s">
+        <v>4</v>
       </c>
       <c r="B4" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="2">
-        <v>43953</v>
+      <c r="A5" t="s">
+        <v>5</v>
       </c>
       <c r="B5" s="1">
         <v>0.5</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="2">
-        <v>43954</v>
+      <c r="A6" t="s">
+        <v>6</v>
       </c>
       <c r="B6" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="2">
-        <v>43955</v>
+      <c r="A7" t="s">
+        <v>7</v>
       </c>
       <c r="B7" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="2">
-        <v>43956</v>
+      <c r="A8" t="s">
+        <v>8</v>
       </c>
       <c r="B8" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="2">
-        <v>43970</v>
+      <c r="A9" t="s">
+        <v>9</v>
       </c>
       <c r="B9" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="2">
-        <v>44021</v>
+      <c r="A10" t="s">
+        <v>10</v>
       </c>
       <c r="B10">
         <v>0.5</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="2">
-        <v>44022</v>
+      <c r="A11" t="s">
+        <v>11</v>
       </c>
       <c r="B11" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="2">
-        <v>44023</v>
+      <c r="A12" t="s">
+        <v>12</v>
       </c>
       <c r="B12" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="2">
-        <v>44024</v>
+      <c r="A13" t="s">
+        <v>13</v>
       </c>
       <c r="B13" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="2">
-        <v>44025</v>
+      <c r="A14" t="s">
+        <v>14</v>
       </c>
       <c r="B14" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="2">
-        <v>44027</v>
+      <c r="A15" t="s">
+        <v>15</v>
       </c>
       <c r="B15" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="2">
-        <v>44073</v>
+      <c r="A16" t="s">
+        <v>16</v>
       </c>
       <c r="B16" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="2">
-        <v>44132</v>
+      <c r="A17" t="s">
+        <v>17</v>
       </c>
       <c r="B17" s="1">
         <v>0.5</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="2">
-        <v>44133</v>
+      <c r="A18" t="s">
+        <v>18</v>
       </c>
       <c r="B18" s="1">
         <v>0</v>
